--- a/DOL_data.xlsx
+++ b/DOL_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\DRIVE\LOOKING WORK\LinkedIn Posts\Weekly Claims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FED8F67-8FB1-4578-A5F3-B73D3343FF73}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00332AF5-FE15-4B31-9090-1BA377FF53D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8055" yWindow="1110" windowWidth="14760" windowHeight="10035" activeTab="1" xr2:uid="{66FE1A43-A1EC-4513-AAC3-10559BE84BA3}"/>
+    <workbookView xWindow="10545" yWindow="795" windowWidth="7455" windowHeight="10035" firstSheet="1" activeTab="1" xr2:uid="{66FE1A43-A1EC-4513-AAC3-10559BE84BA3}"/>
   </bookViews>
   <sheets>
     <sheet name="UISA" sheetId="1" r:id="rId1"/>
@@ -419,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45060114-B0EC-431D-84EA-45D53389A9EA}">
-  <dimension ref="A1:B58"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="B55" sqref="B55"/>
@@ -891,7 +891,15 @@
         <v>44289</v>
       </c>
       <c r="B58" s="3">
-        <v>744000</v>
+        <v>769000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <v>44296</v>
+      </c>
+      <c r="B59" s="3">
+        <v>576000</v>
       </c>
     </row>
   </sheetData>
@@ -901,10 +909,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F96EDC79-1100-41F4-9917-D1B9A5EFBE26}">
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1365,7 +1373,15 @@
         <v>44282</v>
       </c>
       <c r="B57">
-        <v>3734000</v>
+        <v>3727000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <v>44289</v>
+      </c>
+      <c r="B58">
+        <v>3731000</v>
       </c>
     </row>
   </sheetData>
